--- a/objects/concs/ILO_CLD_XHAZ_SEX_AGE_ECO_NB_A_EN_3_conc.xlsx
+++ b/objects/concs/ILO_CLD_XHAZ_SEX_AGE_ECO_NB_A_EN_3_conc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobfry/repos/make-labour-satellite/objects/concs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2BBA60-F2A2-1B48-BD30-55D2538DF07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E995E28-296A-EC4E-8320-529D65BB9CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19496,10 +19496,10 @@
   <dimension ref="A1:IJN4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="QY2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="GYS2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="RC2" sqref="RC2:RE3"/>
+      <selection pane="bottomRight" activeCell="GYU4" sqref="GYU3:GYZ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
